--- a/biology/Zoologie/Cryptoblepharus_nigropunctatus/Cryptoblepharus_nigropunctatus.xlsx
+++ b/biology/Zoologie/Cryptoblepharus_nigropunctatus/Cryptoblepharus_nigropunctatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cryptoblepharus nigropunctatus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cryptoblepharus nigropunctatus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Japon. On peut la trouver dans la région de Kantō ainsi que dans l'archipel d'Ogasawara dans les îles Minamitori, Chichi et Haha [1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Japon. On peut la trouver dans la région de Kantō ainsi que dans l'archipel d'Ogasawara dans les îles Minamitori, Chichi et Haha  :
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hallowell, 1861 "1860" : Report upon the Reptilia of the North Pacific Exploring Expedition, under command of Capt. John Rogers, U. S. N. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 12, p. 480-510 (texte intégral).</t>
         </is>
